--- a/Input/FullSD/Year 2 Sem 2 FullSD Feedback Survey (Class C)(1-10).xlsx
+++ b/Input/FullSD/Year 2 Sem 2 FullSD Feedback Survey (Class C)(1-10).xlsx
@@ -1362,7 +1362,7 @@
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="Rb98bb47761974d6c"/>
+    <x:tablePart r:id="Re97333bbe19e4509"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/Input/FullSD/Year 2 Sem 2 FullSD Feedback Survey (Class C)(1-10).xlsx
+++ b/Input/FullSD/Year 2 Sem 2 FullSD Feedback Survey (Class C)(1-10).xlsx
@@ -1362,7 +1362,7 @@
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="Re97333bbe19e4509"/>
+    <x:tablePart r:id="Rdf67fce3840646d8"/>
   </x:tableParts>
 </x:worksheet>
 </file>